--- a/doc/功能时间计划V1.xlsx
+++ b/doc/功能时间计划V1.xlsx
@@ -8,16 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
-    <sheet name="系统结构" sheetId="4" r:id="rId2"/>
-    <sheet name="计划" sheetId="2" r:id="rId3"/>
-    <sheet name="备注" sheetId="3" r:id="rId4"/>
+    <sheet name="计划" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>文件说明</t>
   </si>
@@ -179,6 +178,21 @@
   </si>
   <si>
     <t>https://github.com/shentianyi/BlueHr</t>
+  </si>
+  <si>
+    <t>杨工</t>
+  </si>
+  <si>
+    <t>15121022513</t>
+  </si>
+  <si>
+    <t>2720018669</t>
+  </si>
+  <si>
+    <t>图片查看js库</t>
+  </si>
+  <si>
+    <t>magnific-popup</t>
   </si>
 </sst>
 </file>
@@ -249,18 +263,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -272,6 +277,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -574,313 +591,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A32" sqref="A32:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G25" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D28" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A23:G23"/>
+  <mergeCells count="8">
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:G33"/>
+    <mergeCell ref="A24:G24"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:G6"/>
     <mergeCell ref="A7:G7"/>
@@ -888,12 +953,12 @@
     <mergeCell ref="A9:G9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1"/>
-    <hyperlink ref="D25" r:id="rId2"/>
-    <hyperlink ref="C26" r:id="rId3"/>
-    <hyperlink ref="D26" r:id="rId4"/>
-    <hyperlink ref="C27" r:id="rId5"/>
-    <hyperlink ref="D27" r:id="rId6"/>
+    <hyperlink ref="C26" r:id="rId1"/>
+    <hyperlink ref="D26" r:id="rId2"/>
+    <hyperlink ref="C27" r:id="rId3"/>
+    <hyperlink ref="D27" r:id="rId4"/>
+    <hyperlink ref="C28" r:id="rId5"/>
+    <hyperlink ref="D28" r:id="rId6"/>
     <hyperlink ref="D13" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -905,7 +970,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -923,16 +990,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/功能时间计划V1.xlsx
+++ b/doc/功能时间计划V1.xlsx
@@ -2,21 +2,233 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="497" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
-    <sheet name="计划" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="整体计划" sheetId="7" r:id="rId2"/>
+    <sheet name="详细计划" sheetId="5" r:id="rId3"/>
+    <sheet name="透视" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">详细计划!$A$1:$K$51</definedName>
+    <definedName name="_Toc459833920" localSheetId="2">详细计划!$C$12</definedName>
+    <definedName name="_Toc459833921" localSheetId="2">详细计划!$C$13</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
+  <pivotCaches>
+    <pivotCache cacheId="18" r:id="rId5"/>
+    <pivotCache cacheId="21" r:id="rId6"/>
+  </pivotCaches>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+前端、后端为同一个人</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+前端、后端总的统计工时</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填写实际工时，单位：小时</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+完成后打勾</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+完成时间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+前端、后端为同一个人</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+前端、后端为同一个人</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+前端、后端为同一个人</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="170">
   <si>
     <t>文件说明</t>
   </si>
@@ -193,13 +405,346 @@
   </si>
   <si>
     <t>magnific-popup</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>完成日期</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>用户权限</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>公司创建</t>
+  </si>
+  <si>
+    <t>公司修改</t>
+  </si>
+  <si>
+    <t>公司删除</t>
+  </si>
+  <si>
+    <t>公司列表</t>
+  </si>
+  <si>
+    <t>页面mock</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>前端\后端人员</t>
+  </si>
+  <si>
+    <t>前端\后台预计工时（小时）</t>
+  </si>
+  <si>
+    <t>前端\后台实际工时（小时）</t>
+  </si>
+  <si>
+    <t>部门创建</t>
+  </si>
+  <si>
+    <t>部门修改</t>
+  </si>
+  <si>
+    <t>部门删除</t>
+  </si>
+  <si>
+    <t>部门列表</t>
+  </si>
+  <si>
+    <t>职位管理</t>
+  </si>
+  <si>
+    <t>人员类别管理</t>
+  </si>
+  <si>
+    <t>学历管理</t>
+  </si>
+  <si>
+    <t>证照类型管理</t>
+  </si>
+  <si>
+    <t>保险类别管理</t>
+  </si>
+  <si>
+    <t>离职原因管理</t>
+  </si>
+  <si>
+    <t>缺勤类别管理</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>员工列表</t>
+  </si>
+  <si>
+    <t>5.1.2</t>
+  </si>
+  <si>
+    <t>员工搜索</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>目的</t>
+  </si>
+  <si>
+    <t>2016.8.24</t>
+  </si>
+  <si>
+    <t>设计</t>
+  </si>
+  <si>
+    <t>2016.8.25</t>
+  </si>
+  <si>
+    <t>2016.9.2</t>
+  </si>
+  <si>
+    <t>1. 基础数据</t>
+  </si>
+  <si>
+    <t>2. 员工管理</t>
+  </si>
+  <si>
+    <t>员工录入</t>
+  </si>
+  <si>
+    <t>员工编辑</t>
+  </si>
+  <si>
+    <t>5.3.1</t>
+  </si>
+  <si>
+    <t>5.3.2</t>
+  </si>
+  <si>
+    <t>员工编辑日志</t>
+  </si>
+  <si>
+    <t>5.4.1</t>
+  </si>
+  <si>
+    <t>5.4.2</t>
+  </si>
+  <si>
+    <t>客户端后台</t>
+  </si>
+  <si>
+    <t>员工转正操作</t>
+  </si>
+  <si>
+    <t>6.1.1</t>
+  </si>
+  <si>
+    <t>员工股转正系统提醒</t>
+  </si>
+  <si>
+    <t>设计一个系统提醒逻辑</t>
+  </si>
+  <si>
+    <t>员工调岗</t>
+  </si>
+  <si>
+    <t>员工离职</t>
+  </si>
+  <si>
+    <t>请将相关设计文档化放到doc中</t>
+  </si>
+  <si>
+    <t>考勤数据库触发器</t>
+  </si>
+  <si>
+    <t>考勤数据Excel导入</t>
+  </si>
+  <si>
+    <t>7.1.1</t>
+  </si>
+  <si>
+    <t>7.2.1</t>
+  </si>
+  <si>
+    <t>7.1.3</t>
+  </si>
+  <si>
+    <t>考勤记录列表</t>
+  </si>
+  <si>
+    <t>7.1.4</t>
+  </si>
+  <si>
+    <t>考勤记录搜索</t>
+  </si>
+  <si>
+    <t>异常考勤处理</t>
+  </si>
+  <si>
+    <t>缺勤数据列表</t>
+  </si>
+  <si>
+    <t>7.3.2</t>
+  </si>
+  <si>
+    <t>缺勤记录搜索</t>
+  </si>
+  <si>
+    <t>7.3.1.1</t>
+  </si>
+  <si>
+    <t>7.3.1.2</t>
+  </si>
+  <si>
+    <t>缺勤记录录入、编辑、删除</t>
+  </si>
+  <si>
+    <t>7.3.3</t>
+  </si>
+  <si>
+    <t>缺勤记录导入Excel</t>
+  </si>
+  <si>
+    <t>设计Excel.xlsx导入模版，并在页面上提供下载</t>
+  </si>
+  <si>
+    <t>5.5.1</t>
+  </si>
+  <si>
+    <t>5.5.2</t>
+  </si>
+  <si>
+    <t>证照未登记警告</t>
+  </si>
+  <si>
+    <t>证照添加</t>
+  </si>
+  <si>
+    <t>5.5.3</t>
+  </si>
+  <si>
+    <t>员工证照列表</t>
+  </si>
+  <si>
+    <t>设计实现：如何存储文件、类型处理等</t>
+  </si>
+  <si>
+    <t>员工详情页</t>
+  </si>
+  <si>
+    <t>包含在录入时间内</t>
+  </si>
+  <si>
+    <t>7.4.1.1</t>
+  </si>
+  <si>
+    <t>7.4.1.2</t>
+  </si>
+  <si>
+    <t>7.4.2</t>
+  </si>
+  <si>
+    <t>7.4.3</t>
+  </si>
+  <si>
+    <t>加班数据列表</t>
+  </si>
+  <si>
+    <t>加班记录搜索</t>
+  </si>
+  <si>
+    <t>加班记录录入、编辑、删除</t>
+  </si>
+  <si>
+    <t>加班记录导入Excel</t>
+  </si>
+  <si>
+    <t>7.5.1</t>
+  </si>
+  <si>
+    <t>班次管理</t>
+  </si>
+  <si>
+    <t>7.6.1</t>
+  </si>
+  <si>
+    <t>创建排班</t>
+  </si>
+  <si>
+    <t>7.6.2</t>
+  </si>
+  <si>
+    <t>排班列表</t>
+  </si>
+  <si>
+    <t>7.6.3</t>
+  </si>
+  <si>
+    <t>排班编辑、删除</t>
+  </si>
+  <si>
+    <t>7.6.4</t>
+  </si>
+  <si>
+    <t>排班搜索</t>
+  </si>
+  <si>
+    <t>7.6.5</t>
+  </si>
+  <si>
+    <t>排班导入Excel</t>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>(空白)</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>设计实现：员工创建、删除、字段修改、转正、调岗、离职、调整考勤等关于员工的修改都记录下来【设计实现必须易用、灵活】</t>
+  </si>
+  <si>
+    <t>求和项:前端\后台预计工时（小时）</t>
+  </si>
+  <si>
+    <t>3.试用管理</t>
+  </si>
+  <si>
+    <t>预计天数</t>
+  </si>
+  <si>
+    <t>求和项:前端\后台实际工时（小时）</t>
+  </si>
+  <si>
+    <t>实际天数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,8 +768,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,8 +853,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -258,12 +873,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -289,12 +929,81 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="强调文字颜色 1" xfId="2" builtinId="29"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -302,6 +1011,855 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42607.750259375003" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="51">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="E1:F1048576" sheet="详细计划"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="前端\后端人员" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="王松"/>
+        <s v="宋福祯"/>
+        <s v="杨工"/>
+        <s v="胡航"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="前端\后台预计工时（小时）" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="40"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42607.751541435187" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="51">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:I1048576" sheet="详细计划"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="功能" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="页面mock" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="前端\后端人员" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="王松"/>
+        <s v="宋福祯"/>
+        <s v="杨工"/>
+        <s v="胡航"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="前端\后台预计工时（小时）" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="40"/>
+    </cacheField>
+    <cacheField name="前端\后台实际工时（小时）" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="状态" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="完成日期" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-01-01T00:00:00" maxDate="2016-01-02T00:00:00"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="51">
+  <r>
+    <x v="0"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="包含在录入时间内"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="51">
+  <r>
+    <s v="用户权限"/>
+    <m/>
+    <x v="0"/>
+    <n v="16"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="公司创建"/>
+    <m/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <s v="√"/>
+    <d v="2016-01-01T00:00:00"/>
+  </r>
+  <r>
+    <s v="公司修改"/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="公司删除"/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="公司列表"/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="部门创建"/>
+    <m/>
+    <x v="2"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="部门修改"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="部门删除"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="部门列表"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="职位管理"/>
+    <m/>
+    <x v="2"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="人员类别管理"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="学历管理"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="证照类型管理"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="保险类别管理"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="离职原因管理"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="缺勤类别管理"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="员工列表"/>
+    <m/>
+    <x v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="员工搜索"/>
+    <m/>
+    <x v="1"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="员工录入"/>
+    <m/>
+    <x v="1"/>
+    <n v="40"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="员工编辑"/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="员工编辑日志"/>
+    <m/>
+    <x v="0"/>
+    <n v="8"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="客户端"/>
+    <m/>
+    <x v="3"/>
+    <n v="16"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="客户端后台"/>
+    <m/>
+    <x v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="员工证照列表"/>
+    <m/>
+    <x v="2"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="证照未登记警告"/>
+    <m/>
+    <x v="0"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="证照添加"/>
+    <m/>
+    <x v="2"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="员工详情页"/>
+    <m/>
+    <x v="1"/>
+    <s v="包含在录入时间内"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="员工转正操作"/>
+    <m/>
+    <x v="1"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="员工股转正系统提醒"/>
+    <m/>
+    <x v="0"/>
+    <n v="16"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="员工调岗"/>
+    <m/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="员工离职"/>
+    <m/>
+    <x v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="考勤数据库触发器"/>
+    <m/>
+    <x v="0"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="考勤数据Excel导入"/>
+    <m/>
+    <x v="0"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="考勤记录列表"/>
+    <m/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="考勤记录搜索"/>
+    <m/>
+    <x v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="异常考勤处理"/>
+    <m/>
+    <x v="0"/>
+    <n v="16"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="缺勤数据列表"/>
+    <m/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="缺勤记录搜索"/>
+    <m/>
+    <x v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="缺勤记录录入、编辑、删除"/>
+    <m/>
+    <x v="2"/>
+    <n v="1.5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="缺勤记录导入Excel"/>
+    <m/>
+    <x v="2"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="加班数据列表"/>
+    <m/>
+    <x v="2"/>
+    <n v="0.5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="加班记录搜索"/>
+    <m/>
+    <x v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="加班记录录入、编辑、删除"/>
+    <m/>
+    <x v="2"/>
+    <n v="1.5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="加班记录导入Excel"/>
+    <m/>
+    <x v="2"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="班次管理"/>
+    <m/>
+    <x v="2"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="创建排班"/>
+    <m/>
+    <x v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="排班列表"/>
+    <m/>
+    <x v="2"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="排班编辑、删除"/>
+    <m/>
+    <x v="1"/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="排班搜索"/>
+    <m/>
+    <x v="2"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="排班导入Excel"/>
+    <m/>
+    <x v="2"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B12:D18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="求和项:前端\后台预计工时（小时）" fld="3" baseField="2" baseItem="0"/>
+    <dataField name="求和项:前端\后台实际工时（小时）" fld="4" baseField="2" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:A2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="2">
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="求和项:前端\后台预计工时（小时）" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -593,14 +2151,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -609,7 +2167,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -620,7 +2178,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -632,7 +2190,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -644,7 +2202,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -653,7 +2211,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -662,7 +2220,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -671,7 +2229,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -682,7 +2240,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -693,7 +2251,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -704,7 +2262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -712,7 +2270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -720,7 +2278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -731,7 +2289,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -739,7 +2297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
@@ -747,7 +2305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
@@ -755,7 +2313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
@@ -763,7 +2321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
@@ -771,7 +2329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
@@ -779,7 +2337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
@@ -787,7 +2345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
@@ -798,7 +2356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
@@ -806,7 +2364,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
@@ -817,7 +2375,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -840,7 +2398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -863,7 +2421,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -883,7 +2441,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -903,7 +2461,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -914,7 +2472,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -923,7 +2481,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -932,7 +2490,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -968,26 +2526,1046 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="11.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="28.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="45.85546875" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1">
+      <c r="A2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="15">
+        <v>16</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1">
+      <c r="B3" s="13">
+        <v>2.1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="16">
+        <v>2</v>
+      </c>
+      <c r="G3" s="20">
+        <v>1</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="19">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1">
+      <c r="B4" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:11" hidden="1">
+      <c r="B5" s="13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:11" hidden="1">
+      <c r="B6" s="13">
+        <v>2.4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="13">
+        <v>3.1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2</v>
+      </c>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="13">
+        <v>3.2</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="16">
+        <v>5</v>
+      </c>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" s="13">
+        <v>4.7</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" hidden="1">
+      <c r="B18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1">
+      <c r="B19" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1">
+      <c r="B20" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="16">
+        <v>40</v>
+      </c>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" hidden="1">
+      <c r="B21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" customHeight="1">
+      <c r="B22" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="13">
+        <v>8</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1">
+      <c r="B23" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1">
+      <c r="B24" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1">
+      <c r="B26" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="B27" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="13">
+        <v>5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>138</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1">
+      <c r="B28" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1">
+      <c r="B29" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="17" customFormat="1" hidden="1">
+      <c r="A30" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="15">
+        <v>16</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="J30" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1">
+      <c r="B33" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1">
+      <c r="B34" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="B35" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="B36" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="17" customFormat="1" hidden="1">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15">
+        <v>7.2</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="15">
+        <v>16</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="B38" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="B39" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="B40" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="B41" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="13">
+        <v>4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>131</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="B42" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="B43" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="B44" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="B45" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="13">
+        <v>3</v>
+      </c>
+      <c r="J45" t="s">
+        <v>131</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="B46" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="B47" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="B48" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" hidden="1">
+      <c r="B49" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="13">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K51">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="杨工"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="8">
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F11:F17"/>
+    <mergeCell ref="G11:G17"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="24">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="29">
+        <v>16</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="26">
+        <f>C13/8</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="26">
+        <f>D13/8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="29">
+        <v>52</v>
+      </c>
+      <c r="D14" s="29">
+        <v>1</v>
+      </c>
+      <c r="E14" s="26">
+        <f>C14/8</f>
+        <v>6.5</v>
+      </c>
+      <c r="F14" s="26">
+        <f t="shared" ref="F14:F18" si="0">D14/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="29">
+        <v>68</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="26">
+        <f t="shared" ref="E15:E18" si="1">C15/8</f>
+        <v>8.5</v>
+      </c>
+      <c r="F15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="29">
+        <v>47</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="26">
+        <f t="shared" si="1"/>
+        <v>5.875</v>
+      </c>
+      <c r="F16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="29">
+        <v>183</v>
+      </c>
+      <c r="D18" s="29">
+        <v>1</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" si="1"/>
+        <v>22.875</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/功能时间计划V1.xlsx
+++ b/doc/功能时间计划V1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="497" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="497" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId5"/>
-    <pivotCache cacheId="21" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -99,7 +99,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-填写实际工时，单位：小时</t>
+填写实际工时，单位：小时.</t>
         </r>
       </text>
     </comment>
@@ -917,18 +917,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -944,17 +932,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -974,13 +956,53 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="强调文字颜色 1" xfId="2" builtinId="29"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1041,7 +1063,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42607.751541435187" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="51">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42607.784223263887" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="51">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:I1048576" sheet="详细计划"/>
   </cacheSource>
@@ -1504,7 +1526,7 @@
     <s v="员工证照列表"/>
     <m/>
     <x v="2"/>
-    <n v="5"/>
+    <n v="8"/>
     <m/>
     <m/>
     <m/>
@@ -1756,7 +1778,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B12:D18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -1815,7 +1837,7 @@
     <dataField name="求和项:前端\后台实际工时（小时）" fld="4" baseField="2" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -1829,7 +1851,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:A2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="2">
     <pivotField showAll="0">
@@ -2168,88 +2190,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="3" t="s">
@@ -2365,15 +2387,15 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -2473,42 +2495,42 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A9:G9"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="A32:G33"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:G6"/>
     <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A9:G9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C26" r:id="rId1"/>
@@ -2528,8 +2550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2540,13 +2562,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2592,802 +2614,802 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="28.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="13" customWidth="1"/>
+    <col min="1" max="2" width="11.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="28.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="9" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
     <col min="10" max="10" width="45.85546875" customWidth="1"/>
     <col min="11" max="11" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" hidden="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="11">
         <v>16</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="14" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1">
-      <c r="B3" s="13">
+    <row r="3" spans="1:11">
+      <c r="B3" s="9">
         <v>2.1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="28">
         <v>2</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="29">
         <v>1</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="14">
         <v>42370</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1">
-      <c r="B4" s="13">
+    <row r="4" spans="1:11">
+      <c r="B4" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="20"/>
-    </row>
-    <row r="5" spans="1:11" hidden="1">
-      <c r="B5" s="13">
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:11" hidden="1">
-      <c r="B6" s="13">
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="9">
         <v>2.4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="20"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="13">
+      <c r="B7" s="9">
         <v>3.1</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="28">
         <v>2</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <v>3.2</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="13">
+      <c r="B9" s="9">
         <v>3.3</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="13">
+      <c r="B10" s="9">
         <v>3.4</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="13">
+      <c r="B11" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="16">
-        <v>5</v>
-      </c>
-      <c r="G11" s="16"/>
+      <c r="F11" s="28">
+        <v>6</v>
+      </c>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="13">
+      <c r="B12" s="9">
         <v>4.2</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" s="13">
+      <c r="B13" s="9">
         <v>4.3</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="B14" s="13">
+      <c r="B14" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="13">
+      <c r="B15" s="9">
         <v>4.5</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="13">
+      <c r="B16" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="B17" s="13">
+      <c r="B17" s="9">
         <v>4.7</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" hidden="1">
-      <c r="B18" s="13" t="s">
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1">
-      <c r="B19" s="13" t="s">
+    <row r="19" spans="1:11">
+      <c r="B19" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1">
-      <c r="B20" s="13">
+    <row r="20" spans="1:11">
+      <c r="B20" s="9">
         <v>5.2</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="28">
         <v>40</v>
       </c>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" hidden="1">
-      <c r="B21" s="13" t="s">
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="B21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" s="13" customFormat="1" ht="45" hidden="1" customHeight="1">
-      <c r="B22" s="13" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:11" s="9" customFormat="1" ht="45" hidden="1" customHeight="1">
+      <c r="B22" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="9">
         <v>8</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:11" hidden="1">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:11" hidden="1">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="13">
-        <v>5</v>
+      <c r="F25" s="9">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:11" hidden="1">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="9">
         <v>5</v>
       </c>
       <c r="J27" t="s">
         <v>138</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1">
-      <c r="B28" s="13">
+    <row r="28" spans="1:11">
+      <c r="B28" s="9">
         <v>5.6</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1">
-      <c r="B29" s="13" t="s">
+    <row r="29" spans="1:11">
+      <c r="B29" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="17" customFormat="1" hidden="1">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:11" s="12" customFormat="1" hidden="1">
+      <c r="A30" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15" t="s">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="11">
         <v>16</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="J30" s="17" t="s">
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="J30" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="B31" s="13">
+      <c r="B31" s="9">
         <v>6.2</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="B32" s="13">
+      <c r="B32" s="9">
         <v>6.3</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:11" hidden="1">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:11" hidden="1">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="17" customFormat="1" hidden="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15">
+    <row r="37" spans="1:11" s="12" customFormat="1" hidden="1">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11">
         <v>7.2</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15" t="s">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="11">
         <v>16</v>
       </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="9">
         <v>1.5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="9">
         <v>4</v>
       </c>
       <c r="J41" t="s">
         <v>131</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K41" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="9">
         <v>1.5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="9">
         <v>3</v>
       </c>
       <c r="J45" t="s">
         <v>131</v>
       </c>
-      <c r="K45" s="14" t="s">
+      <c r="K45" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1">
-      <c r="B49" s="13" t="s">
+    <row r="49" spans="2:6">
+      <c r="B49" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="9">
         <v>4</v>
       </c>
     </row>
@@ -3395,6 +3417,7 @@
   <autoFilter ref="A1:K51">
     <filterColumn colId="4">
       <filters>
+        <filter val="宋福祯"/>
         <filter val="杨工"/>
       </filters>
     </filterColumn>
@@ -3419,7 +3442,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3443,124 +3466,124 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="24">
+      <c r="A2" s="18">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="21" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="23">
         <v>16</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="26">
+      <c r="D13" s="23"/>
+      <c r="E13" s="20">
         <f>C13/8</f>
         <v>2</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="20">
         <f>D13/8</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="23">
         <v>52</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="23">
         <v>1</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="20">
         <f>C14/8</f>
         <v>6.5</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="20">
         <f t="shared" ref="F14:F18" si="0">D14/8</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="23">
         <v>68</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="26">
+      <c r="D15" s="23"/>
+      <c r="E15" s="20">
         <f t="shared" ref="E15:E18" si="1">C15/8</f>
         <v>8.5</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="29">
-        <v>47</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="26">
+      <c r="C16" s="23">
+        <v>50</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="20">
         <f t="shared" si="1"/>
-        <v>5.875</v>
-      </c>
-      <c r="F16" s="26">
+        <v>6.25</v>
+      </c>
+      <c r="F16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="29">
-        <v>183</v>
-      </c>
-      <c r="D18" s="29">
+      <c r="C18" s="23">
+        <v>186</v>
+      </c>
+      <c r="D18" s="23">
         <v>1</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="20">
         <f t="shared" si="1"/>
-        <v>22.875</v>
-      </c>
-      <c r="F18" s="26">
+        <v>23.25</v>
+      </c>
+      <c r="F18" s="20">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>

--- a/doc/功能时间计划V1.xlsx
+++ b/doc/功能时间计划V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="497" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="497" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="6" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1063,7 +1063,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42607.784223263887" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="51">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42607.815140740742" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="51">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:I1048576" sheet="详细计划"/>
   </cacheSource>
@@ -1400,7 +1400,7 @@
     <s v="职位管理"/>
     <m/>
     <x v="2"/>
-    <n v="5"/>
+    <n v="6"/>
     <m/>
     <m/>
     <m/>
@@ -1544,7 +1544,7 @@
     <s v="证照添加"/>
     <m/>
     <x v="2"/>
-    <n v="5"/>
+    <n v="6"/>
     <m/>
     <m/>
     <m/>
@@ -1778,7 +1778,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B12:D18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -1851,7 +1851,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:A2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="2">
     <pivotField showAll="0">
@@ -2614,8 +2614,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3040,7 +3040,7 @@
         <v>54</v>
       </c>
       <c r="F27" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J27" t="s">
         <v>138</v>
@@ -3167,7 +3167,7 @@
         <v>119</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F35" s="9">
         <v>0.5</v>
@@ -3181,7 +3181,7 @@
         <v>121</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
@@ -3442,7 +3442,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3545,12 +3545,12 @@
         <v>54</v>
       </c>
       <c r="C16" s="23">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="20">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="F16" s="20">
         <f t="shared" si="0"/>
@@ -3574,14 +3574,14 @@
         <v>163</v>
       </c>
       <c r="C18" s="23">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D18" s="23">
         <v>1</v>
       </c>
       <c r="E18" s="20">
         <f t="shared" si="1"/>
-        <v>23.25</v>
+        <v>23.5</v>
       </c>
       <c r="F18" s="20">
         <f t="shared" si="0"/>

--- a/doc/功能时间计划V1.xlsx
+++ b/doc/功能时间计划V1.xlsx
@@ -980,29 +980,7 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="强调文字颜色 1" xfId="2" builtinId="29"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <border>
         <left style="thin">
@@ -1837,7 +1815,7 @@
     <dataField name="求和项:前端\后台实际工时（小时）" fld="4" baseField="2" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2614,8 +2592,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2663,7 +2641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1">
+    <row r="2" spans="1:11">
       <c r="A2" s="11" t="s">
         <v>64</v>
       </c>
@@ -2688,7 +2666,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="B3" s="9">
         <v>2.1</v>
       </c>
@@ -2711,7 +2689,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1">
       <c r="B4" s="9">
         <v>2.2000000000000002</v>
       </c>
@@ -2724,7 +2702,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="B5" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -2737,7 +2715,7 @@
       <c r="F5" s="28"/>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="B6" s="9">
         <v>2.4</v>
       </c>
@@ -2750,7 +2728,7 @@
       <c r="F6" s="28"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1">
       <c r="B7" s="9">
         <v>3.1</v>
       </c>
@@ -2765,7 +2743,7 @@
       </c>
       <c r="G7" s="28"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="B8" s="9">
         <v>3.2</v>
       </c>
@@ -2778,7 +2756,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="B9" s="9">
         <v>3.3</v>
       </c>
@@ -2791,7 +2769,7 @@
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="B10" s="9">
         <v>3.4</v>
       </c>
@@ -2804,7 +2782,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="B11" s="9">
         <v>4.0999999999999996</v>
       </c>
@@ -2819,7 +2797,7 @@
       </c>
       <c r="G11" s="28"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="B12" s="9">
         <v>4.2</v>
       </c>
@@ -2832,7 +2810,7 @@
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="B13" s="9">
         <v>4.3</v>
       </c>
@@ -2845,7 +2823,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="B14" s="9">
         <v>4.4000000000000004</v>
       </c>
@@ -2858,7 +2836,7 @@
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="B15" s="9">
         <v>4.5</v>
       </c>
@@ -2871,7 +2849,7 @@
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="B16" s="9">
         <v>4.5999999999999996</v>
       </c>
@@ -2884,7 +2862,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="B17" s="9">
         <v>4.7</v>
       </c>
@@ -2897,7 +2875,7 @@
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="B18" s="9" t="s">
         <v>86</v>
       </c>
@@ -2911,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="B19" s="9" t="s">
         <v>88</v>
       </c>
@@ -2925,7 +2903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="B20" s="9">
         <v>5.2</v>
       </c>
@@ -2940,7 +2918,7 @@
       </c>
       <c r="G20" s="28"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="B21" s="9" t="s">
         <v>101</v>
       </c>
@@ -2953,7 +2931,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" ht="45" hidden="1" customHeight="1">
+    <row r="22" spans="1:11" s="9" customFormat="1" ht="45" customHeight="1">
       <c r="B22" s="9" t="s">
         <v>102</v>
       </c>
@@ -2987,7 +2965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1">
+    <row r="24" spans="1:11">
       <c r="B24" s="9" t="s">
         <v>105</v>
       </c>
@@ -3001,7 +2979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="B25" s="9" t="s">
         <v>132</v>
       </c>
@@ -3015,7 +2993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" spans="1:11">
       <c r="B26" s="9" t="s">
         <v>133</v>
       </c>
@@ -3029,7 +3007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="B27" s="9" t="s">
         <v>136</v>
       </c>
@@ -3049,7 +3027,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="B28" s="9">
         <v>5.6</v>
       </c>
@@ -3063,7 +3041,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="B29" s="9" t="s">
         <v>108</v>
       </c>
@@ -3077,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" hidden="1">
+    <row r="30" spans="1:11" s="12" customFormat="1">
       <c r="A30" s="11" t="s">
         <v>64</v>
       </c>
@@ -3103,7 +3081,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="B31" s="9">
         <v>6.2</v>
       </c>
@@ -3117,7 +3095,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="B32" s="9">
         <v>6.3</v>
       </c>
@@ -3131,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1">
+    <row r="33" spans="1:11">
       <c r="B33" s="9" t="s">
         <v>116</v>
       </c>
@@ -3145,7 +3123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1">
+    <row r="34" spans="1:11">
       <c r="B34" s="9" t="s">
         <v>117</v>
       </c>
@@ -3187,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" hidden="1">
+    <row r="37" spans="1:11" s="12" customFormat="1">
       <c r="A37" s="11"/>
       <c r="B37" s="11">
         <v>7.2</v>
@@ -3205,7 +3183,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1">
       <c r="B38" s="9" t="s">
         <v>126</v>
       </c>
@@ -3219,7 +3197,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="B39" s="9" t="s">
         <v>127</v>
       </c>
@@ -3233,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="B40" s="9" t="s">
         <v>124</v>
       </c>
@@ -3247,7 +3225,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="B41" s="9" t="s">
         <v>129</v>
       </c>
@@ -3267,7 +3245,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="B42" s="9" t="s">
         <v>141</v>
       </c>
@@ -3281,7 +3259,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="B43" s="9" t="s">
         <v>142</v>
       </c>
@@ -3295,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="B44" s="9" t="s">
         <v>143</v>
       </c>
@@ -3309,7 +3287,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="B45" s="9" t="s">
         <v>144</v>
       </c>
@@ -3329,7 +3307,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="B46" s="9" t="s">
         <v>149</v>
       </c>
@@ -3343,7 +3321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="B47" s="9" t="s">
         <v>151</v>
       </c>
@@ -3357,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1">
       <c r="B48" s="9" t="s">
         <v>153</v>
       </c>
@@ -3371,7 +3349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" hidden="1">
       <c r="B49" s="9" t="s">
         <v>155</v>
       </c>
@@ -3385,7 +3363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" hidden="1">
       <c r="B50" s="9" t="s">
         <v>157</v>
       </c>
@@ -3399,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" hidden="1">
       <c r="B51" s="9" t="s">
         <v>159</v>
       </c>
@@ -3417,8 +3395,7 @@
   <autoFilter ref="A1:K51">
     <filterColumn colId="4">
       <filters>
-        <filter val="宋福祯"/>
-        <filter val="杨工"/>
+        <filter val="王松"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/doc/功能时间计划V1.xlsx
+++ b/doc/功能时间计划V1.xlsx
@@ -19,8 +19,8 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
-    <pivotCache cacheId="6" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1756,7 +1756,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B12:D18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -1829,7 +1829,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:A2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="2">
     <pivotField showAll="0">
@@ -2593,7 +2593,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2977,6 +2977,9 @@
       </c>
       <c r="F24" s="9">
         <v>2</v>
+      </c>
+      <c r="G24" s="9">
+        <v>2.5</v>
       </c>
     </row>
     <row r="25" spans="1:11" hidden="1">

--- a/doc/功能时间计划V1.xlsx
+++ b/doc/功能时间计划V1.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="170">
   <si>
     <t>文件说明</t>
   </si>
@@ -2593,7 +2593,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2980,6 +2980,12 @@
       </c>
       <c r="G24" s="9">
         <v>2.5</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24">
+        <v>8.26</v>
       </c>
     </row>
     <row r="25" spans="1:11" hidden="1">

--- a/doc/功能时间计划V1.xlsx
+++ b/doc/功能时间计划V1.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="170">
   <si>
     <t>文件说明</t>
   </si>
@@ -903,7 +903,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -956,6 +956,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2168,88 +2171,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="3" t="s">
@@ -2365,15 +2368,15 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -2473,31 +2476,31 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2593,7 +2596,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2676,10 +2679,10 @@
       <c r="E3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="29">
         <v>2</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="30">
         <v>1</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -2699,8 +2702,8 @@
       <c r="E4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:11" hidden="1">
       <c r="B5" s="9">
@@ -2712,8 +2715,8 @@
       <c r="E5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:11" hidden="1">
       <c r="B6" s="9">
@@ -2725,8 +2728,8 @@
       <c r="E6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:11" hidden="1">
       <c r="B7" s="9">
@@ -2738,10 +2741,10 @@
       <c r="E7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="29">
         <v>2</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:11" hidden="1">
       <c r="B8" s="9">
@@ -2753,8 +2756,8 @@
       <c r="E8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:11" hidden="1">
       <c r="B9" s="9">
@@ -2766,8 +2769,8 @@
       <c r="E9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:11" hidden="1">
       <c r="B10" s="9">
@@ -2779,8 +2782,8 @@
       <c r="E10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:11" hidden="1">
       <c r="B11" s="9">
@@ -2792,10 +2795,10 @@
       <c r="E11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="29">
         <v>6</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:11" hidden="1">
       <c r="B12" s="9">
@@ -2807,8 +2810,8 @@
       <c r="E12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:11" hidden="1">
       <c r="B13" s="9">
@@ -2820,8 +2823,8 @@
       <c r="E13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:11" hidden="1">
       <c r="B14" s="9">
@@ -2833,8 +2836,8 @@
       <c r="E14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:11" hidden="1">
       <c r="B15" s="9">
@@ -2846,8 +2849,8 @@
       <c r="E15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:11" hidden="1">
       <c r="B16" s="9">
@@ -2859,8 +2862,8 @@
       <c r="E16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:11" hidden="1">
       <c r="B17" s="9">
@@ -2872,8 +2875,8 @@
       <c r="E17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:11" hidden="1">
       <c r="B18" s="9" t="s">
@@ -2913,10 +2916,10 @@
       <c r="E20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="29">
         <v>40</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:11" hidden="1">
       <c r="B21" s="9" t="s">
@@ -2928,8 +2931,8 @@
       <c r="E21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:11" s="9" customFormat="1" ht="45" customHeight="1">
       <c r="B22" s="9" t="s">
@@ -3145,6 +3148,9 @@
       <c r="F34" s="9">
         <v>4</v>
       </c>
+      <c r="H34" s="24" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="B35" s="9" t="s">
@@ -3159,6 +3165,9 @@
       <c r="F35" s="9">
         <v>0.5</v>
       </c>
+      <c r="H35" s="24" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="B36" s="9" t="s">
@@ -3172,6 +3181,9 @@
       </c>
       <c r="F36" s="9">
         <v>1</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="12" customFormat="1">

--- a/doc/功能时间计划V1.xlsx
+++ b/doc/功能时间计划V1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="497" activeTab="2"/>
+    <workbookView minimized="1" xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="497" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="_Toc459833920" localSheetId="2">详细计划!$C$12</definedName>
     <definedName name="_Toc459833921" localSheetId="2">详细计划!$C$13</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
     <pivotCache cacheId="1" r:id="rId6"/>
@@ -31,7 +31,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="171">
   <si>
     <t>文件说明</t>
   </si>
@@ -738,17 +738,21 @@
   </si>
   <si>
     <t>实际天数</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -756,7 +760,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -764,14 +768,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -779,7 +783,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -787,7 +791,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -809,7 +813,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -823,8 +827,15 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -903,7 +914,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -959,6 +970,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,7 +995,7 @@
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="强调文字颜色 1" xfId="2" builtinId="29"/>
+    <cellStyle name="着色 1" xfId="2" builtinId="29"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1012,6 +1026,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1019,7 +1036,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42607.750259375003" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="51">
   <cacheSource type="worksheet">
-    <worksheetSource ref="E1:F1048576" sheet="详细计划"/>
+    <worksheetSource ref="E1:F1048576" sheet="详细计划" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="前端\后端人员" numFmtId="0">
@@ -1046,7 +1063,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42607.815140740742" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="51">
   <cacheSource type="worksheet">
-    <worksheetSource ref="C1:I1048576" sheet="详细计划"/>
+    <worksheetSource ref="C1:I1048576" sheet="详细计划" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="功能" numFmtId="0">
@@ -1759,6 +1776,40 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:A2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="2">
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="求和项:前端\后台预计工时（小时）" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B12:D18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
@@ -1831,42 +1882,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:A2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="2">
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="求和项:前端\后台预计工时（小时）" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1908,7 +1925,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1943,7 +1960,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2158,103 +2175,103 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.125" style="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.125" style="1"/>
+    <col min="7" max="7" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="28" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="27" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="25" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -2265,7 +2282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2273,7 +2290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -2281,7 +2298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -2292,7 +2309,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -2300,7 +2317,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
@@ -2308,7 +2325,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
@@ -2316,7 +2333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
@@ -2324,7 +2341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
@@ -2332,7 +2349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2340,7 +2357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
@@ -2348,7 +2365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
@@ -2359,7 +2376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
@@ -2367,18 +2384,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="25" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -2401,7 +2418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2424,7 +2441,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -2444,7 +2461,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -2464,7 +2481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -2475,32 +2492,32 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2513,6 +2530,7 @@
     <mergeCell ref="A3:G6"/>
     <mergeCell ref="A7:G7"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C26" r:id="rId1"/>
     <hyperlink ref="D26" r:id="rId2"/>
@@ -2535,14 +2553,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="41.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+    <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>90</v>
       </c>
@@ -2553,7 +2571,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1">
+    <row r="2" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -2564,7 +2582,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -2575,17 +2593,18 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2596,23 +2615,23 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="11.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="27.25" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="28.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="45.85546875" customWidth="1"/>
-    <col min="11" max="11" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="28.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="9" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="10" max="10" width="45.875" customWidth="1"/>
+    <col min="11" max="11" width="30.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>61</v>
       </c>
@@ -2644,7 +2663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>64</v>
       </c>
@@ -2669,7 +2688,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9">
         <v>2.1</v>
       </c>
@@ -2679,10 +2698,10 @@
       <c r="E3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="30">
         <v>2</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="31">
         <v>1</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -2692,7 +2711,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9">
         <v>2.2000000000000002</v>
       </c>
@@ -2702,10 +2721,10 @@
       <c r="E4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:11" hidden="1">
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -2715,10 +2734,10 @@
       <c r="E5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:11" hidden="1">
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9">
         <v>2.4</v>
       </c>
@@ -2728,10 +2747,10 @@
       <c r="E6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="1:11" hidden="1">
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>3.1</v>
       </c>
@@ -2741,12 +2760,17 @@
       <c r="E7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="30">
         <v>2</v>
       </c>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:11" hidden="1">
+      <c r="G7" s="30">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>3.2</v>
       </c>
@@ -2756,10 +2780,13 @@
       <c r="E8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:11" hidden="1">
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" s="9">
         <v>3.3</v>
       </c>
@@ -2769,10 +2796,13 @@
       <c r="E9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:11" hidden="1">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B10" s="9">
         <v>3.4</v>
       </c>
@@ -2782,10 +2812,13 @@
       <c r="E10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:11" hidden="1">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
         <v>4.0999999999999996</v>
       </c>
@@ -2795,12 +2828,15 @@
       <c r="E11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="30">
         <v>6</v>
       </c>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:11" hidden="1">
+      <c r="G11" s="30"/>
+      <c r="H11" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B12" s="9">
         <v>4.2</v>
       </c>
@@ -2810,10 +2846,13 @@
       <c r="E12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:11" hidden="1">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>4.3</v>
       </c>
@@ -2823,10 +2862,10 @@
       <c r="E13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:11" hidden="1">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" s="9">
         <v>4.4000000000000004</v>
       </c>
@@ -2836,10 +2875,10 @@
       <c r="E14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:11" hidden="1">
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B15" s="9">
         <v>4.5</v>
       </c>
@@ -2849,10 +2888,10 @@
       <c r="E15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:11" hidden="1">
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B16" s="9">
         <v>4.5999999999999996</v>
       </c>
@@ -2862,10 +2901,10 @@
       <c r="E16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:11" hidden="1">
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B17" s="9">
         <v>4.7</v>
       </c>
@@ -2875,10 +2914,10 @@
       <c r="E17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:11" hidden="1">
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
         <v>86</v>
       </c>
@@ -2892,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9" t="s">
         <v>88</v>
       </c>
@@ -2906,7 +2945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9">
         <v>5.2</v>
       </c>
@@ -2916,12 +2955,12 @@
       <c r="E20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="30">
         <v>40</v>
       </c>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:11" hidden="1">
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9" t="s">
         <v>101</v>
       </c>
@@ -2931,10 +2970,10 @@
       <c r="E21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" ht="45" customHeight="1">
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:11" s="9" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
         <v>102</v>
       </c>
@@ -2954,7 +2993,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9" t="s">
         <v>104</v>
       </c>
@@ -2968,7 +3007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
         <v>105</v>
       </c>
@@ -2991,7 +3030,7 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B25" s="9" t="s">
         <v>132</v>
       </c>
@@ -3005,7 +3044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B26" s="9" t="s">
         <v>133</v>
       </c>
@@ -3019,7 +3058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B27" s="9" t="s">
         <v>136</v>
       </c>
@@ -3039,7 +3078,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="9">
         <v>5.6</v>
       </c>
@@ -3053,7 +3092,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B29" s="9" t="s">
         <v>108</v>
       </c>
@@ -3067,7 +3106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1">
+    <row r="30" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="s">
         <v>64</v>
       </c>
@@ -3093,7 +3132,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B31" s="9">
         <v>6.2</v>
       </c>
@@ -3107,7 +3146,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B32" s="9">
         <v>6.3</v>
       </c>
@@ -3121,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B33" s="9" t="s">
         <v>116</v>
       </c>
@@ -3135,7 +3174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="9" t="s">
         <v>117</v>
       </c>
@@ -3152,7 +3191,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B35" s="9" t="s">
         <v>118</v>
       </c>
@@ -3169,7 +3208,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="B36" s="9" t="s">
         <v>120</v>
       </c>
@@ -3186,7 +3225,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1">
+    <row r="37" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11"/>
       <c r="B37" s="11">
         <v>7.2</v>
@@ -3204,7 +3243,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:11" hidden="1">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B38" s="9" t="s">
         <v>126</v>
       </c>
@@ -3218,7 +3257,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B39" s="9" t="s">
         <v>127</v>
       </c>
@@ -3232,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B40" s="9" t="s">
         <v>124</v>
       </c>
@@ -3246,7 +3285,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B41" s="9" t="s">
         <v>129</v>
       </c>
@@ -3266,7 +3305,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B42" s="9" t="s">
         <v>141</v>
       </c>
@@ -3280,7 +3319,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B43" s="9" t="s">
         <v>142</v>
       </c>
@@ -3294,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B44" s="9" t="s">
         <v>143</v>
       </c>
@@ -3308,7 +3347,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B45" s="9" t="s">
         <v>144</v>
       </c>
@@ -3328,7 +3367,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B46" s="9" t="s">
         <v>149</v>
       </c>
@@ -3342,7 +3381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B47" s="9" t="s">
         <v>151</v>
       </c>
@@ -3356,7 +3395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B48" s="9" t="s">
         <v>153</v>
       </c>
@@ -3370,7 +3409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B49" s="9" t="s">
         <v>155</v>
       </c>
@@ -3384,7 +3423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" s="9" t="s">
         <v>157</v>
       </c>
@@ -3398,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="9" t="s">
         <v>159</v>
       </c>
@@ -3416,7 +3455,7 @@
   <autoFilter ref="A1:K51">
     <filterColumn colId="4">
       <filters>
-        <filter val="王松"/>
+        <filter val="杨工"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3430,6 +3469,7 @@
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="G7:G10"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -3443,32 +3483,32 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" customWidth="1"/>
-    <col min="5" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.625" customWidth="1"/>
+    <col min="5" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="18">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="19" t="s">
         <v>161</v>
       </c>
@@ -3485,7 +3525,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="22" t="s">
         <v>48</v>
       </c>
@@ -3502,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="22" t="s">
         <v>41</v>
       </c>
@@ -3521,7 +3561,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="22" t="s">
         <v>36</v>
       </c>
@@ -3538,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="22" t="s">
         <v>54</v>
       </c>
@@ -3555,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="22" t="s">
         <v>162</v>
       </c>
@@ -3567,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="22" t="s">
         <v>163</v>
       </c>
@@ -3587,6 +3627,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/doc/功能时间计划V1.xlsx
+++ b/doc/功能时间计划V1.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="497" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="497" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
-    <sheet name="整体计划" sheetId="7" r:id="rId2"/>
-    <sheet name="详细计划" sheetId="5" r:id="rId3"/>
-    <sheet name="透视" sheetId="6" r:id="rId4"/>
+    <sheet name="详细计划" sheetId="5" r:id="rId2"/>
+    <sheet name="透视" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">详细计划!$A$1:$K$51</definedName>
-    <definedName name="_Toc459833920" localSheetId="2">详细计划!$C$12</definedName>
-    <definedName name="_Toc459833921" localSheetId="2">详细计划!$C$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">详细计划!$A$1:$K$51</definedName>
+    <definedName name="_Toc459833920" localSheetId="1">详细计划!$C$12</definedName>
+    <definedName name="_Toc459833921" localSheetId="1">详细计划!$C$13</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -31,7 +30,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="161">
   <si>
     <t>文件说明</t>
   </si>
@@ -500,33 +499,6 @@
     <t>员工搜索</t>
   </si>
   <si>
-    <t>开始时间</t>
-  </si>
-  <si>
-    <t>结束时间</t>
-  </si>
-  <si>
-    <t>目的</t>
-  </si>
-  <si>
-    <t>2016.8.24</t>
-  </si>
-  <si>
-    <t>设计</t>
-  </si>
-  <si>
-    <t>2016.8.25</t>
-  </si>
-  <si>
-    <t>2016.9.2</t>
-  </si>
-  <si>
-    <t>1. 基础数据</t>
-  </si>
-  <si>
-    <t>2. 员工管理</t>
-  </si>
-  <si>
     <t>员工录入</t>
   </si>
   <si>
@@ -677,9 +649,6 @@
     <t>加班记录导入Excel</t>
   </si>
   <si>
-    <t>7.5.1</t>
-  </si>
-  <si>
     <t>班次管理</t>
   </si>
   <si>
@@ -726,9 +695,6 @@
   </si>
   <si>
     <t>求和项:前端\后台预计工时（小时）</t>
-  </si>
-  <si>
-    <t>3.试用管理</t>
   </si>
   <si>
     <t>预计天数</t>
@@ -742,17 +708,20 @@
   <si>
     <t>完成</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -760,7 +729,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -768,14 +737,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -783,7 +752,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -791,7 +760,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -813,7 +782,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -827,13 +796,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -876,21 +845,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -914,7 +874,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -928,10 +888,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -953,20 +913,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -995,7 +952,7 @@
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="着色 1" xfId="2" builtinId="29"/>
+    <cellStyle name="强调文字颜色 1" xfId="2" builtinId="29"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1061,7 +1018,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42607.815140740742" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="51">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="作者" refreshedDate="42618.405846412039" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="51">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:I1048576" sheet="详细计划" r:id="rId2"/>
   </cacheSource>
@@ -1073,25 +1030,26 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="前端\后端人员" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems containsBlank="1" count="6">
         <s v="王松"/>
         <s v="宋福祯"/>
-        <s v="杨工"/>
+        <m/>
+        <s v="未知"/>
         <s v="胡航"/>
-        <m/>
+        <s v="杨工" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="前端\后台预计工时（小时）" numFmtId="0">
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.5" maxValue="40"/>
     </cacheField>
     <cacheField name="前端\后台实际工时（小时）" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1" maxValue="3"/>
     </cacheField>
     <cacheField name="状态" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="完成日期" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-01-01T00:00:00" maxDate="2016-01-02T00:00:00"/>
+      <sharedItems containsDate="1" containsString="0" containsBlank="1" containsMixedTypes="1" minDate="2016-01-01T00:00:00" maxDate="1900-01-05T13:33:04"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1363,8 +1321,8 @@
     <m/>
     <x v="2"/>
     <n v="2"/>
-    <m/>
-    <m/>
+    <n v="3"/>
+    <s v="完成"/>
     <m/>
   </r>
   <r>
@@ -1373,7 +1331,7 @@
     <x v="2"/>
     <m/>
     <m/>
-    <m/>
+    <s v="完成"/>
     <m/>
   </r>
   <r>
@@ -1382,7 +1340,7 @@
     <x v="2"/>
     <m/>
     <m/>
-    <m/>
+    <s v="完成"/>
     <m/>
   </r>
   <r>
@@ -1391,14 +1349,14 @@
     <x v="2"/>
     <m/>
     <m/>
-    <m/>
+    <s v="完成"/>
     <m/>
   </r>
   <r>
     <s v="职位管理"/>
     <m/>
-    <x v="2"/>
-    <n v="6"/>
+    <x v="3"/>
+    <n v="8"/>
     <m/>
     <m/>
     <m/>
@@ -1406,7 +1364,7 @@
   <r>
     <s v="人员类别管理"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
     <m/>
@@ -1415,7 +1373,7 @@
   <r>
     <s v="学历管理"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
     <m/>
@@ -1424,7 +1382,7 @@
   <r>
     <s v="证照类型管理"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
     <m/>
@@ -1433,7 +1391,7 @@
   <r>
     <s v="保险类别管理"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
     <m/>
@@ -1442,7 +1400,7 @@
   <r>
     <s v="离职原因管理"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
     <m/>
@@ -1451,7 +1409,7 @@
   <r>
     <s v="缺勤类别管理"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <m/>
     <m/>
     <m/>
@@ -1505,7 +1463,7 @@
   <r>
     <s v="客户端"/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <n v="16"/>
     <m/>
     <m/>
@@ -1516,14 +1474,14 @@
     <m/>
     <x v="0"/>
     <n v="2"/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="2.5"/>
+    <s v="√"/>
+    <n v="8.26"/>
   </r>
   <r>
     <s v="员工证照列表"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <n v="8"/>
     <m/>
     <m/>
@@ -1541,7 +1499,7 @@
   <r>
     <s v="证照添加"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <n v="6"/>
     <m/>
     <m/>
@@ -1577,7 +1535,7 @@
   <r>
     <s v="员工调岗"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <n v="0.5"/>
     <m/>
     <m/>
@@ -1586,7 +1544,7 @@
   <r>
     <s v="员工离职"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <n v="1"/>
     <m/>
     <m/>
@@ -1607,25 +1565,25 @@
     <x v="0"/>
     <n v="4"/>
     <m/>
-    <m/>
+    <s v="√"/>
     <m/>
   </r>
   <r>
     <s v="考勤记录列表"/>
     <m/>
-    <x v="2"/>
+    <x v="0"/>
     <n v="0.5"/>
     <m/>
-    <m/>
+    <s v="√"/>
     <m/>
   </r>
   <r>
     <s v="考勤记录搜索"/>
     <m/>
-    <x v="2"/>
+    <x v="0"/>
     <n v="1"/>
     <m/>
-    <m/>
+    <s v="√"/>
     <m/>
   </r>
   <r>
@@ -1640,7 +1598,7 @@
   <r>
     <s v="缺勤数据列表"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <n v="0.5"/>
     <m/>
     <m/>
@@ -1649,7 +1607,7 @@
   <r>
     <s v="缺勤记录搜索"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <n v="1"/>
     <m/>
     <m/>
@@ -1658,7 +1616,7 @@
   <r>
     <s v="缺勤记录录入、编辑、删除"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <n v="1.5"/>
     <m/>
     <m/>
@@ -1667,7 +1625,7 @@
   <r>
     <s v="缺勤记录导入Excel"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <n v="4"/>
     <m/>
     <m/>
@@ -1676,7 +1634,7 @@
   <r>
     <s v="加班数据列表"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <n v="0.5"/>
     <m/>
     <m/>
@@ -1685,7 +1643,7 @@
   <r>
     <s v="加班记录搜索"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <n v="1"/>
     <m/>
     <m/>
@@ -1694,7 +1652,7 @@
   <r>
     <s v="加班记录录入、编辑、删除"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <n v="1.5"/>
     <m/>
     <m/>
@@ -1703,7 +1661,7 @@
   <r>
     <s v="加班记录导入Excel"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <n v="3"/>
     <m/>
     <m/>
@@ -1712,7 +1670,7 @@
   <r>
     <s v="班次管理"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <n v="3"/>
     <m/>
     <m/>
@@ -1721,7 +1679,7 @@
   <r>
     <s v="创建排班"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <n v="1"/>
     <m/>
     <m/>
@@ -1730,7 +1688,7 @@
   <r>
     <s v="排班列表"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <n v="5"/>
     <m/>
     <m/>
@@ -1748,25 +1706,25 @@
   <r>
     <s v="排班搜索"/>
     <m/>
+    <x v="3"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="排班导入Excel"/>
+    <m/>
+    <x v="3"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="2"/>
-    <n v="1"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="排班导入Excel"/>
-    <m/>
-    <x v="2"/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="4"/>
     <m/>
     <m/>
     <m/>
@@ -1810,18 +1768,19 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B12:D18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="3"/>
+      <items count="7">
+        <item x="4"/>
         <item x="1"/>
         <item x="0"/>
+        <item m="1" x="5"/>
         <item x="2"/>
-        <item x="4"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1844,10 +1803,10 @@
       <x v="2"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -1883,7 +1842,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1925,7 +1884,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1960,7 +1919,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2175,103 +2134,103 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="1"/>
-    <col min="7" max="7" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="28" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -2282,7 +2241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2290,7 +2249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -2298,7 +2257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -2309,7 +2268,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -2317,7 +2276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
@@ -2325,7 +2284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
@@ -2333,7 +2292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
@@ -2341,7 +2300,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
@@ -2349,7 +2308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2357,7 +2316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
@@ -2365,7 +2324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
@@ -2376,7 +2335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
@@ -2384,18 +2343,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="26" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -2418,7 +2377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2441,7 +2400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -2461,7 +2420,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -2481,7 +2440,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -2492,32 +2451,32 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2546,92 +2505,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="41.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.75" style="9" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="28.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="9" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
-    <col min="10" max="10" width="45.875" customWidth="1"/>
-    <col min="11" max="11" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="28.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="45.85546875" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="8" t="s">
         <v>61</v>
       </c>
@@ -2663,7 +2558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" s="11" t="s">
         <v>64</v>
       </c>
@@ -2685,10 +2580,10 @@
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1">
       <c r="B3" s="9">
         <v>2.1</v>
       </c>
@@ -2698,10 +2593,10 @@
       <c r="E3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>2</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="30">
         <v>1</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -2711,7 +2606,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" hidden="1">
       <c r="B4" s="9">
         <v>2.2000000000000002</v>
       </c>
@@ -2721,10 +2616,10 @@
       <c r="E4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:11" hidden="1">
       <c r="B5" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -2734,10 +2629,10 @@
       <c r="E5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:11" hidden="1">
       <c r="B6" s="9">
         <v>2.4</v>
       </c>
@@ -2747,78 +2642,66 @@
       <c r="E6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:11" hidden="1">
       <c r="B7" s="9">
         <v>3.1</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <v>2</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="29">
         <v>3</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1">
       <c r="B8" s="9">
         <v>3.2</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1">
       <c r="B9" s="9">
         <v>3.3</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1">
       <c r="B10" s="9">
         <v>3.4</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="B11" s="9">
         <v>4.0999999999999996</v>
       </c>
@@ -2826,17 +2709,15 @@
         <v>79</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="30">
-        <v>6</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+      <c r="F11" s="29">
+        <v>8</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="B12" s="9">
         <v>4.2</v>
       </c>
@@ -2844,15 +2725,13 @@
         <v>80</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="B13" s="9">
         <v>4.3</v>
       </c>
@@ -2860,12 +2739,12 @@
         <v>81</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="B14" s="9">
         <v>4.4000000000000004</v>
       </c>
@@ -2873,12 +2752,12 @@
         <v>82</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="B15" s="9">
         <v>4.5</v>
       </c>
@@ -2886,12 +2765,12 @@
         <v>83</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="B16" s="9">
         <v>4.5999999999999996</v>
       </c>
@@ -2899,12 +2778,12 @@
         <v>84</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="B17" s="9">
         <v>4.7</v>
       </c>
@@ -2912,12 +2791,12 @@
         <v>85</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:11" hidden="1">
       <c r="B18" s="9" t="s">
         <v>86</v>
       </c>
@@ -2931,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" hidden="1">
       <c r="B19" s="9" t="s">
         <v>88</v>
       </c>
@@ -2945,40 +2824,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" hidden="1">
       <c r="B20" s="9">
         <v>5.2</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="29">
         <v>40</v>
       </c>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:11" hidden="1">
       <c r="B21" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:11" s="9" customFormat="1" ht="45" hidden="1" customHeight="1">
       <c r="B22" s="9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>36</v>
@@ -2986,16 +2865,16 @@
       <c r="F22" s="9">
         <v>8</v>
       </c>
-      <c r="J22" s="17" t="s">
-        <v>164</v>
+      <c r="J22" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1">
       <c r="B23" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>17</v>
@@ -3007,12 +2886,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" hidden="1">
       <c r="B24" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>36</v>
@@ -3030,26 +2909,26 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11">
       <c r="B25" s="9" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="F25" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" hidden="1">
       <c r="B26" s="9" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>36</v>
@@ -3058,46 +2937,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11">
       <c r="B27" s="9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="F27" s="9">
         <v>6</v>
       </c>
       <c r="J27" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1">
       <c r="B28" s="9">
         <v>5.6</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1">
       <c r="B29" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>41</v>
@@ -3106,15 +2985,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" s="12" customFormat="1" hidden="1">
       <c r="A30" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
@@ -3126,46 +3005,46 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="J30" s="12" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="B31" s="9">
         <v>6.2</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="F31" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="B32" s="9">
         <v>6.3</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="F32" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" hidden="1">
       <c r="B33" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>36</v>
@@ -3174,12 +3053,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" hidden="1">
       <c r="B34" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>36</v>
@@ -3187,16 +3066,16 @@
       <c r="F34" s="9">
         <v>4</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="H34" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" hidden="1">
       <c r="B35" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>36</v>
@@ -3204,16 +3083,16 @@
       <c r="F35" s="9">
         <v>0.5</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" hidden="1">
       <c r="B36" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>36</v>
@@ -3221,17 +3100,17 @@
       <c r="F36" s="9">
         <v>1</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" s="12" customFormat="1" hidden="1">
       <c r="A37" s="11"/>
       <c r="B37" s="11">
         <v>7.2</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
@@ -3243,178 +3122,178 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11">
       <c r="B38" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="F38" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11">
       <c r="B39" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="F39" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11">
       <c r="B40" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="F40" s="9">
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11">
       <c r="B41" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="F41" s="9">
         <v>4</v>
       </c>
       <c r="J41" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="B42" s="9" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="F42" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11">
       <c r="B43" s="9" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="F43" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11">
       <c r="B44" s="9" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="F44" s="9">
         <v>1.5</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11">
       <c r="B45" s="9" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="F45" s="9">
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B46" s="9" t="s">
-        <v>149</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="B46" s="9">
+        <v>7.5</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="F46" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11">
       <c r="B47" s="9" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="F47" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11">
       <c r="B48" s="9" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="F48" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:6" hidden="1">
       <c r="B49" s="9" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>41</v>
@@ -3423,29 +3302,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:6">
       <c r="B50" s="9" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="F50" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:6">
       <c r="B51" s="9" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C51" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="F51" s="9">
         <v>4</v>
@@ -3455,7 +3334,7 @@
   <autoFilter ref="A1:K51">
     <filterColumn colId="4">
       <filters>
-        <filter val="杨工"/>
+        <filter val="未知"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3475,155 +3354,161 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.625" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="37.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.625" customWidth="1"/>
-    <col min="5" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="18">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="17">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="22" t="s">
+    <row r="12" spans="1:6">
+      <c r="B12" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>16</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="20">
+      <c r="D13" s="22"/>
+      <c r="E13" s="19">
         <f>C13/8</f>
         <v>2</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <f>D13/8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="22" t="s">
+    <row r="14" spans="1:6">
+      <c r="B14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>52</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>1</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <f>C14/8</f>
         <v>6.5</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <f t="shared" ref="F14:F18" si="0">D14/8</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="22" t="s">
+    <row r="15" spans="1:6">
+      <c r="B15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="23">
-        <v>68</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20">
+      <c r="C15" s="22">
+        <v>69.5</v>
+      </c>
+      <c r="D15" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="E15" s="19">
         <f t="shared" ref="E15:E18" si="1">C15/8</f>
-        <v>8.5</v>
-      </c>
-      <c r="F15" s="20">
+        <v>8.6875</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="22">
+        <v>2</v>
+      </c>
+      <c r="D16" s="22">
+        <v>3</v>
+      </c>
+      <c r="E16" s="19">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="22">
+        <v>50.5</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="23">
-        <v>52</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="20">
+    <row r="18" spans="2:6">
+      <c r="B18" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="22">
+        <v>190</v>
+      </c>
+      <c r="D18" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="E18" s="19">
         <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="F16" s="20">
+        <v>23.75</v>
+      </c>
+      <c r="F18" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="23">
-        <v>188</v>
-      </c>
-      <c r="D18" s="23">
-        <v>1</v>
-      </c>
-      <c r="E18" s="20">
-        <f t="shared" si="1"/>
-        <v>23.5</v>
-      </c>
-      <c r="F18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.8125</v>
       </c>
     </row>
   </sheetData>

--- a/doc/功能时间计划V1.xlsx
+++ b/doc/功能时间计划V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="497" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="497"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <calcPr calcId="144525"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="158">
   <si>
     <t>文件说明</t>
   </si>
@@ -389,15 +389,6 @@
   </si>
   <si>
     <t>https://github.com/shentianyi/BlueHr</t>
-  </si>
-  <si>
-    <t>杨工</t>
-  </si>
-  <si>
-    <t>15121022513</t>
-  </si>
-  <si>
-    <t>2720018669</t>
   </si>
   <si>
     <t>图片查看js库</t>
@@ -1768,7 +1759,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B12:D18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -2128,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2337,10 +2328,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2440,25 +2431,23 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>56</v>
-      </c>
+    <row r="30" spans="1:7">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="26"/>
@@ -2469,21 +2458,12 @@
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G33"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G32"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:G6"/>
@@ -2509,8 +2489,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2528,31 +2508,31 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>24</v>
@@ -2560,13 +2540,13 @@
     </row>
     <row r="2" spans="1:11" hidden="1">
       <c r="A2" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
@@ -2580,7 +2560,7 @@
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1">
@@ -2588,7 +2568,7 @@
         <v>2.1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>41</v>
@@ -2600,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I3" s="14">
         <v>42370</v>
@@ -2611,7 +2591,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>41</v>
@@ -2624,7 +2604,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>41</v>
@@ -2637,7 +2617,7 @@
         <v>2.4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>41</v>
@@ -2650,7 +2630,7 @@
         <v>3.1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F7" s="29">
         <v>2</v>
@@ -2659,7 +2639,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1">
@@ -2667,12 +2647,12 @@
         <v>3.2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1">
@@ -2680,12 +2660,12 @@
         <v>3.3</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1">
@@ -2693,12 +2673,12 @@
         <v>3.4</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2706,10 +2686,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F11" s="29">
         <v>8</v>
@@ -2722,10 +2702,10 @@
         <v>4.2</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
@@ -2736,10 +2716,10 @@
         <v>4.3</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
@@ -2749,10 +2729,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
@@ -2762,10 +2742,10 @@
         <v>4.5</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
@@ -2775,10 +2755,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -2788,20 +2768,20 @@
         <v>4.7</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:11" hidden="1">
       <c r="B18" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>41</v>
@@ -2812,10 +2792,10 @@
     </row>
     <row r="19" spans="1:11" hidden="1">
       <c r="B19" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>41</v>
@@ -2829,7 +2809,7 @@
         <v>5.2</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>41</v>
@@ -2841,10 +2821,10 @@
     </row>
     <row r="21" spans="1:11" hidden="1">
       <c r="B21" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>41</v>
@@ -2854,10 +2834,10 @@
     </row>
     <row r="22" spans="1:11" s="9" customFormat="1" ht="45" hidden="1" customHeight="1">
       <c r="B22" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>36</v>
@@ -2866,15 +2846,15 @@
         <v>8</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:11" hidden="1">
       <c r="B23" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>17</v>
@@ -2888,10 +2868,10 @@
     </row>
     <row r="24" spans="1:11" hidden="1">
       <c r="B24" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>36</v>
@@ -2903,32 +2883,33 @@
         <v>2.5</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I24">
         <v>8.26</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="9">
+      <c r="B25" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:11" hidden="1">
       <c r="B26" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>36</v>
@@ -2938,23 +2919,24 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="10">
+        <v>6</v>
+      </c>
+      <c r="J27" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27" s="9">
-        <v>6</v>
-      </c>
-      <c r="J27" t="s">
-        <v>129</v>
-      </c>
       <c r="K27" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:11" hidden="1">
@@ -2962,21 +2944,21 @@
         <v>5.6</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:11" hidden="1">
       <c r="B29" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>41</v>
@@ -2987,13 +2969,13 @@
     </row>
     <row r="30" spans="1:11" s="12" customFormat="1" hidden="1">
       <c r="A30" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
@@ -3005,10 +2987,10 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="J30" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3016,10 +2998,10 @@
         <v>6.2</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
@@ -3030,10 +3012,10 @@
         <v>6.3</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F32" s="9">
         <v>1</v>
@@ -3041,10 +3023,10 @@
     </row>
     <row r="33" spans="1:11" hidden="1">
       <c r="B33" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>36</v>
@@ -3055,10 +3037,10 @@
     </row>
     <row r="34" spans="1:11" hidden="1">
       <c r="B34" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>36</v>
@@ -3067,15 +3049,15 @@
         <v>4</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:11" hidden="1">
       <c r="B35" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>36</v>
@@ -3084,15 +3066,15 @@
         <v>0.5</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:11" hidden="1">
       <c r="B36" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>36</v>
@@ -3101,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="12" customFormat="1" hidden="1">
@@ -3110,7 +3092,7 @@
         <v>7.2</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
@@ -3124,13 +3106,13 @@
     </row>
     <row r="38" spans="1:11">
       <c r="B38" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F38" s="9">
         <v>0.5</v>
@@ -3138,13 +3120,13 @@
     </row>
     <row r="39" spans="1:11">
       <c r="B39" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F39" s="9">
         <v>1</v>
@@ -3152,13 +3134,13 @@
     </row>
     <row r="40" spans="1:11">
       <c r="B40" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F40" s="9">
         <v>1.5</v>
@@ -3166,33 +3148,33 @@
     </row>
     <row r="41" spans="1:11">
       <c r="B41" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F41" s="9">
         <v>4</v>
       </c>
       <c r="J41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="B42" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F42" s="9">
         <v>0.5</v>
@@ -3200,13 +3182,13 @@
     </row>
     <row r="43" spans="1:11">
       <c r="B43" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F43" s="9">
         <v>1</v>
@@ -3214,13 +3196,13 @@
     </row>
     <row r="44" spans="1:11">
       <c r="B44" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F44" s="9">
         <v>1.5</v>
@@ -3228,22 +3210,22 @@
     </row>
     <row r="45" spans="1:11">
       <c r="B45" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F45" s="9">
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3251,10 +3233,10 @@
         <v>7.5</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F46" s="9">
         <v>3</v>
@@ -3262,13 +3244,13 @@
     </row>
     <row r="47" spans="1:11">
       <c r="B47" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F47" s="9">
         <v>1</v>
@@ -3276,13 +3258,13 @@
     </row>
     <row r="48" spans="1:11">
       <c r="B48" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F48" s="9">
         <v>5</v>
@@ -3290,10 +3272,10 @@
     </row>
     <row r="49" spans="2:6" hidden="1">
       <c r="B49" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>41</v>
@@ -3304,13 +3286,13 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F50" s="9">
         <v>1</v>
@@ -3318,13 +3300,13 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F51" s="9">
         <v>4</v>
@@ -3350,7 +3332,8 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3379,7 +3362,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3389,19 +3372,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>155</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3461,7 +3444,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C16" s="22">
         <v>2</v>
@@ -3480,7 +3463,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C17" s="22">
         <v>50.5</v>
@@ -3494,7 +3477,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C18" s="22">
         <v>190</v>

--- a/doc/功能时间计划V1.xlsx
+++ b/doc/功能时间计划V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="497"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="497" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -472,9 +472,6 @@
     <t>保险类别管理</t>
   </si>
   <si>
-    <t>离职原因管理</t>
-  </si>
-  <si>
     <t>缺勤类别管理</t>
   </si>
   <si>
@@ -702,6 +699,9 @@
   </si>
   <si>
     <t>未知</t>
+  </si>
+  <si>
+    <t>离职原因类别管理</t>
   </si>
 </sst>
 </file>
@@ -2121,7 +2121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
@@ -2489,19 +2489,19 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="11.7109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="28.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="0.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="9" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="28.140625" style="9" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="9" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="45.85546875" customWidth="1"/>
     <col min="11" max="11" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2560,7 +2560,7 @@
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1">
@@ -2639,7 +2639,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1">
@@ -2652,7 +2652,7 @@
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1">
@@ -2665,7 +2665,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1">
@@ -2678,7 +2678,7 @@
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2689,7 +2689,7 @@
         <v>76</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F11" s="29">
         <v>8</v>
@@ -2705,7 +2705,7 @@
         <v>77</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
@@ -2719,7 +2719,7 @@
         <v>78</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
@@ -2732,7 +2732,7 @@
         <v>79</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
@@ -2745,7 +2745,7 @@
         <v>80</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
@@ -2755,10 +2755,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -2768,20 +2768,20 @@
         <v>4.7</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:11" hidden="1">
       <c r="B18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>41</v>
@@ -2792,10 +2792,10 @@
     </row>
     <row r="19" spans="1:11" hidden="1">
       <c r="B19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>41</v>
@@ -2809,7 +2809,7 @@
         <v>5.2</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>41</v>
@@ -2821,10 +2821,10 @@
     </row>
     <row r="21" spans="1:11" hidden="1">
       <c r="B21" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>41</v>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="22" spans="1:11" s="9" customFormat="1" ht="45" hidden="1" customHeight="1">
       <c r="B22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>36</v>
@@ -2846,15 +2846,15 @@
         <v>8</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:11" hidden="1">
       <c r="B23" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>17</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="24" spans="1:11" hidden="1">
       <c r="B24" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>36</v>
@@ -2891,14 +2891,14 @@
     </row>
     <row r="25" spans="1:11">
       <c r="B25" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F25" s="10">
         <v>8</v>
@@ -2906,10 +2906,10 @@
     </row>
     <row r="26" spans="1:11" hidden="1">
       <c r="B26" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>36</v>
@@ -2920,23 +2920,23 @@
     </row>
     <row r="27" spans="1:11">
       <c r="B27" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F27" s="10">
         <v>6</v>
       </c>
       <c r="J27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:11" hidden="1">
@@ -2944,21 +2944,21 @@
         <v>5.6</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:11" hidden="1">
       <c r="B29" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>41</v>
@@ -2972,10 +2972,10 @@
         <v>61</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
@@ -2987,10 +2987,10 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="J30" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2998,10 +2998,10 @@
         <v>6.2</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
@@ -3012,10 +3012,10 @@
         <v>6.3</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F32" s="9">
         <v>1</v>
@@ -3023,10 +3023,10 @@
     </row>
     <row r="33" spans="1:11" hidden="1">
       <c r="B33" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>36</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="34" spans="1:11" hidden="1">
       <c r="B34" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>36</v>
@@ -3054,10 +3054,10 @@
     </row>
     <row r="35" spans="1:11" hidden="1">
       <c r="B35" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>36</v>
@@ -3071,10 +3071,10 @@
     </row>
     <row r="36" spans="1:11" hidden="1">
       <c r="B36" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>36</v>
@@ -3092,7 +3092,7 @@
         <v>7.2</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
@@ -3106,13 +3106,13 @@
     </row>
     <row r="38" spans="1:11">
       <c r="B38" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F38" s="9">
         <v>0.5</v>
@@ -3120,13 +3120,13 @@
     </row>
     <row r="39" spans="1:11">
       <c r="B39" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F39" s="9">
         <v>1</v>
@@ -3134,13 +3134,13 @@
     </row>
     <row r="40" spans="1:11">
       <c r="B40" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F40" s="9">
         <v>1.5</v>
@@ -3148,33 +3148,33 @@
     </row>
     <row r="41" spans="1:11">
       <c r="B41" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="E41" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F41" s="9">
         <v>4</v>
       </c>
       <c r="J41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="B42" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F42" s="9">
         <v>0.5</v>
@@ -3182,13 +3182,13 @@
     </row>
     <row r="43" spans="1:11">
       <c r="B43" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F43" s="9">
         <v>1</v>
@@ -3196,13 +3196,13 @@
     </row>
     <row r="44" spans="1:11">
       <c r="B44" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F44" s="9">
         <v>1.5</v>
@@ -3210,22 +3210,22 @@
     </row>
     <row r="45" spans="1:11">
       <c r="B45" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F45" s="9">
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3233,10 +3233,10 @@
         <v>7.5</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F46" s="9">
         <v>3</v>
@@ -3244,13 +3244,13 @@
     </row>
     <row r="47" spans="1:11">
       <c r="B47" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="E47" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F47" s="9">
         <v>1</v>
@@ -3258,13 +3258,13 @@
     </row>
     <row r="48" spans="1:11">
       <c r="B48" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="E48" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F48" s="9">
         <v>5</v>
@@ -3272,10 +3272,10 @@
     </row>
     <row r="49" spans="2:6" hidden="1">
       <c r="B49" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>41</v>
@@ -3286,13 +3286,13 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="E50" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F50" s="9">
         <v>1</v>
@@ -3300,13 +3300,13 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>147</v>
-      </c>
       <c r="E51" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F51" s="9">
         <v>4</v>
@@ -3362,7 +3362,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3372,19 +3372,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="F12" s="20" t="s">
         <v>154</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3444,7 +3444,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="22">
         <v>2</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" s="22">
         <v>50.5</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" s="22">
         <v>190</v>

--- a/doc/功能时间计划V1.xlsx
+++ b/doc/功能时间计划V1.xlsx
@@ -2490,7 +2490,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2501,7 +2501,7 @@
     <col min="5" max="5" width="14.85546875" style="9" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="28.140625" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" style="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.85546875" customWidth="1"/>
     <col min="11" max="11" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>

--- a/doc/功能时间计划V1.xlsx
+++ b/doc/功能时间计划V1.xlsx
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="158">
   <si>
     <t>文件说明</t>
   </si>
@@ -865,7 +865,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -915,6 +915,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2138,88 +2141,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="3" t="s">
@@ -2335,15 +2338,15 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -2432,31 +2435,31 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2490,17 +2493,18 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="11.7109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="9" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="28.140625" style="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="9" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17" style="9" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="28" style="9" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45.85546875" customWidth="1"/>
     <col min="11" max="11" width="30.5703125" bestFit="1" customWidth="1"/>
@@ -2538,7 +2542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1">
+    <row r="2" spans="1:11">
       <c r="A2" s="11" t="s">
         <v>61</v>
       </c>
@@ -2573,10 +2577,10 @@
       <c r="E3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="30">
         <v>2</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="31">
         <v>1</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -2596,8 +2600,8 @@
       <c r="E4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:11" hidden="1">
       <c r="B5" s="9">
@@ -2609,8 +2613,8 @@
       <c r="E5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:11" hidden="1">
       <c r="B6" s="9">
@@ -2622,8 +2626,8 @@
       <c r="E6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:11" hidden="1">
       <c r="B7" s="9">
@@ -2632,10 +2636,10 @@
       <c r="C7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="30">
         <v>2</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="30">
         <v>3</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -2649,8 +2653,8 @@
       <c r="C8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="24" t="s">
         <v>155</v>
       </c>
@@ -2662,8 +2666,8 @@
       <c r="C9" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="24" t="s">
         <v>155</v>
       </c>
@@ -2675,13 +2679,13 @@
       <c r="C10" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="B11" s="9">
         <v>4.0999999999999996</v>
       </c>
@@ -2691,13 +2695,13 @@
       <c r="E11" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="30">
         <v>8</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="B12" s="9">
         <v>4.2</v>
       </c>
@@ -2707,11 +2711,11 @@
       <c r="E12" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="B13" s="9">
         <v>4.3</v>
       </c>
@@ -2721,10 +2725,10 @@
       <c r="E13" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:11" hidden="1">
       <c r="B14" s="9">
         <v>4.4000000000000004</v>
       </c>
@@ -2734,10 +2738,10 @@
       <c r="E14" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:11" hidden="1">
       <c r="B15" s="9">
         <v>4.5</v>
       </c>
@@ -2747,10 +2751,10 @@
       <c r="E15" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:11" hidden="1">
       <c r="B16" s="9">
         <v>4.5999999999999996</v>
       </c>
@@ -2760,10 +2764,10 @@
       <c r="E16" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:11" hidden="1">
       <c r="B17" s="9">
         <v>4.7</v>
       </c>
@@ -2773,8 +2777,8 @@
       <c r="E17" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:11" hidden="1">
       <c r="B18" s="9" t="s">
@@ -2814,10 +2818,10 @@
       <c r="E20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="30">
         <v>40</v>
       </c>
-      <c r="G20" s="29"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:11" hidden="1">
       <c r="B21" s="9" t="s">
@@ -2829,10 +2833,10 @@
       <c r="E21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" ht="45" hidden="1" customHeight="1">
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:11" s="9" customFormat="1" ht="45" customHeight="1">
       <c r="B22" s="9" t="s">
         <v>89</v>
       </c>
@@ -2866,7 +2870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1">
+    <row r="24" spans="1:11">
       <c r="B24" s="9" t="s">
         <v>92</v>
       </c>
@@ -2889,7 +2893,7 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="B25" s="10" t="s">
         <v>119</v>
       </c>
@@ -2904,7 +2908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" spans="1:11">
       <c r="B26" s="9" t="s">
         <v>120</v>
       </c>
@@ -2918,7 +2922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="B27" s="10" t="s">
         <v>123</v>
       </c>
@@ -2967,7 +2971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" hidden="1">
+    <row r="30" spans="1:11" s="12" customFormat="1">
       <c r="A30" s="11" t="s">
         <v>61</v>
       </c>
@@ -2993,7 +2997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="B31" s="9">
         <v>6.2</v>
       </c>
@@ -3007,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="B32" s="9">
         <v>6.3</v>
       </c>
@@ -3021,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1">
+    <row r="33" spans="1:11">
       <c r="B33" s="9" t="s">
         <v>103</v>
       </c>
@@ -3035,7 +3039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1">
+    <row r="34" spans="1:11">
       <c r="B34" s="9" t="s">
         <v>104</v>
       </c>
@@ -3052,7 +3056,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1">
+    <row r="35" spans="1:11">
       <c r="B35" s="9" t="s">
         <v>105</v>
       </c>
@@ -3069,7 +3073,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1">
+    <row r="36" spans="1:11">
       <c r="B36" s="9" t="s">
         <v>107</v>
       </c>
@@ -3086,7 +3090,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" hidden="1">
+    <row r="37" spans="1:11" s="12" customFormat="1">
       <c r="A37" s="11"/>
       <c r="B37" s="11">
         <v>7.2</v>
@@ -3102,9 +3106,11 @@
         <v>16</v>
       </c>
       <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="H37" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1">
       <c r="B38" s="9" t="s">
         <v>113</v>
       </c>
@@ -3118,7 +3124,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="B39" s="9" t="s">
         <v>114</v>
       </c>
@@ -3132,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="B40" s="9" t="s">
         <v>111</v>
       </c>
@@ -3146,7 +3152,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="B41" s="9" t="s">
         <v>116</v>
       </c>
@@ -3166,7 +3172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="B42" s="9" t="s">
         <v>128</v>
       </c>
@@ -3180,7 +3186,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="B43" s="9" t="s">
         <v>129</v>
       </c>
@@ -3194,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="B44" s="9" t="s">
         <v>130</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="B45" s="9" t="s">
         <v>131</v>
       </c>
@@ -3228,7 +3234,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="B46" s="9">
         <v>7.5</v>
       </c>
@@ -3242,7 +3248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="B47" s="9" t="s">
         <v>137</v>
       </c>
@@ -3256,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1">
       <c r="B48" s="9" t="s">
         <v>139</v>
       </c>
@@ -3284,7 +3290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" hidden="1">
       <c r="B50" s="9" t="s">
         <v>143</v>
       </c>
@@ -3298,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" hidden="1">
       <c r="B51" s="9" t="s">
         <v>145</v>
       </c>
@@ -3316,7 +3322,7 @@
   <autoFilter ref="A1:K51">
     <filterColumn colId="4">
       <filters>
-        <filter val="未知"/>
+        <filter val="王松"/>
       </filters>
     </filterColumn>
   </autoFilter>
